--- a/data/raw/devices.xlsx
+++ b/data/raw/devices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E057978-6EB1-404D-9325-706501F26DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33350432-50D3-4A62-8A6E-80808674E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>manufacturer</t>
   </si>
@@ -119,16 +119,13 @@
     <t>weight_gr</t>
   </si>
   <si>
-    <t>size_rect_mm</t>
-  </si>
-  <si>
-    <t>size_round_mm</t>
-  </si>
-  <si>
     <t>release_year</t>
   </si>
   <si>
     <t>device_id</t>
+  </si>
+  <si>
+    <t>size_mm</t>
   </si>
 </sst>
 </file>
@@ -489,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,9 +504,9 @@
     <col min="10" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -521,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>8</v>
@@ -542,16 +539,13 @@
         <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -588,11 +582,11 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="N2">
+      <c r="M2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -626,10 +620,10 @@
       <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="N3">
+      <c r="M3">
         <v>38</v>
       </c>
     </row>

--- a/data/raw/devices.xlsx
+++ b/data/raw/devices.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wd.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33350432-50D3-4A62-8A6E-80808674E363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F435131D-66A3-49D7-971B-15B10C3B5B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+  <si>
+    <t>device_id</t>
+  </si>
   <si>
     <t>manufacturer</t>
   </si>
@@ -44,13 +47,64 @@
     <t>model</t>
   </si>
   <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>release_year</t>
+  </si>
+  <si>
+    <t>market_status</t>
+  </si>
+  <si>
+    <t>main_use</t>
+  </si>
+  <si>
+    <t>device_cost</t>
+  </si>
+  <si>
+    <t>device_cost_info</t>
+  </si>
+  <si>
+    <t>wearable_type</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>size_mm</t>
+  </si>
+  <si>
+    <t>weight_gr</t>
+  </si>
+  <si>
+    <t>001_sia_wd_emp</t>
+  </si>
+  <si>
     <t>Empatica</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>001_sia_wd_emp</t>
+    <t>https://www.empatica.com/research/e4/</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>one-time purchase price including a device + software</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Wrist</t>
+  </si>
+  <si>
+    <t>L44xW40xH16</t>
   </si>
   <si>
     <t>002_sia_wd_emp</t>
@@ -59,19 +113,7 @@
     <t>EmbracePlus</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>market_status</t>
-  </si>
-  <si>
-    <t>main_use</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>Research</t>
+    <t>https://www.empatica.com/embraceplus/</t>
   </si>
   <si>
     <t>Current</t>
@@ -80,52 +122,226 @@
     <t>Research &amp; Clinical</t>
   </si>
   <si>
-    <t>wearable_type</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Watch</t>
-  </si>
-  <si>
-    <t>Wrist</t>
-  </si>
-  <si>
-    <t>L44xW40xH16</t>
+    <t>three year bundle per a device + software (25% academic discount available)</t>
   </si>
   <si>
     <t>D32xH15</t>
   </si>
   <si>
-    <t>device_cost</t>
-  </si>
-  <si>
-    <t>https://www.empatica.com/research/e4/</t>
-  </si>
-  <si>
-    <t>device_cost_info</t>
-  </si>
-  <si>
-    <t>one-time purchase price including a device + software</t>
-  </si>
-  <si>
-    <t>https://www.empatica.com/embraceplus/</t>
-  </si>
-  <si>
-    <t>three year bundle per a device + software (25% academic discount available)</t>
-  </si>
-  <si>
-    <t>weight_gr</t>
-  </si>
-  <si>
-    <t>release_year</t>
-  </si>
-  <si>
-    <t>device_id</t>
-  </si>
-  <si>
-    <t>size_mm</t>
+    <t>003_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>Vrije Universiteit van Amsterdam</t>
+  </si>
+  <si>
+    <t>VU-AMS 5fs</t>
+  </si>
+  <si>
+    <t>http://www.vu-ams.nl/</t>
+  </si>
+  <si>
+    <t>CPU + electrodes</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>L126xW69xH32</t>
+  </si>
+  <si>
+    <t>004_sia_wd_vri</t>
+  </si>
+  <si>
+    <t>VU-AMS Core</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>L57xW57xH17</t>
+  </si>
+  <si>
+    <t>005_sia_wd_fit</t>
+  </si>
+  <si>
+    <t>Fitbit</t>
+  </si>
+  <si>
+    <t>Charge 5</t>
+  </si>
+  <si>
+    <t>https://www.fitbit.com/global/nl/products/trackers/charge5?sku=421BKBK</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>L36.7xW22.7xH11.2</t>
+  </si>
+  <si>
+    <t>006_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>Bittium</t>
+  </si>
+  <si>
+    <t>Bittium Faros 360</t>
+  </si>
+  <si>
+    <t>https://www.bittium.com/medical/bittium-faros</t>
+  </si>
+  <si>
+    <t>Clinical</t>
+  </si>
+  <si>
+    <t>not allowed to share price details publicly</t>
+  </si>
+  <si>
+    <t>L48xW13xH29</t>
+  </si>
+  <si>
+    <t>007_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>Bittium Faros 180</t>
+  </si>
+  <si>
+    <t>L48xW13xH30</t>
+  </si>
+  <si>
+    <t>008_sia_wd_bit</t>
+  </si>
+  <si>
+    <t>Bittium Faros 180L</t>
+  </si>
+  <si>
+    <t>L48xW13xH31</t>
+  </si>
+  <si>
+    <t>009_sia_wd_our</t>
+  </si>
+  <si>
+    <t>Oura</t>
+  </si>
+  <si>
+    <t>Oura Ring Gen3</t>
+  </si>
+  <si>
+    <t>https://ouraring.com/</t>
+  </si>
+  <si>
+    <t>one-time purchase price including a device but not the required monthly app subscription (6 EUR)</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>Finger</t>
+  </si>
+  <si>
+    <t>sizes4-15</t>
+  </si>
+  <si>
+    <t>010_sia_wd_min</t>
+  </si>
+  <si>
+    <t>MindWare Technologies</t>
+  </si>
+  <si>
+    <t>MindWare Mobile</t>
+  </si>
+  <si>
+    <t>https://www.mindwaretech.com/mindware-mobile/</t>
+  </si>
+  <si>
+    <t>electrodes and router comes at an extra price this is before tax (21%)</t>
+  </si>
+  <si>
+    <t>L117xW79xH47</t>
+  </si>
+  <si>
+    <t>011_sia_wd_nov</t>
+  </si>
+  <si>
+    <t>Novacor</t>
+  </si>
+  <si>
+    <t>Diasys 3 plus</t>
+  </si>
+  <si>
+    <t>https://novacor.com/product/diasys-3-plus/</t>
+  </si>
+  <si>
+    <t>1760 for the unit and 300 for the associated required software</t>
+  </si>
+  <si>
+    <t>CPU + strap</t>
+  </si>
+  <si>
+    <t>L85xW85xH25</t>
+  </si>
+  <si>
+    <t>012_sia_wd_car</t>
+  </si>
+  <si>
+    <t>Carré Technologies Inc.</t>
+  </si>
+  <si>
+    <t>Hexoskin Proshirt</t>
+  </si>
+  <si>
+    <t>https://www.hexoskin.com/</t>
+  </si>
+  <si>
+    <t>Research &amp; Consumer</t>
+  </si>
+  <si>
+    <t>CPU + vest</t>
+  </si>
+  <si>
+    <t>Shirt: 2XS-4XL; CPU: L42xW72xH13</t>
+  </si>
+  <si>
+    <t>013_sia_wd_app</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Apple Watch SE</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/apple-watch-se/</t>
+  </si>
+  <si>
+    <t>iPhone is required</t>
+  </si>
+  <si>
+    <t>L44xW38xH10.7</t>
+  </si>
+  <si>
+    <t>014_sia_wd_app</t>
+  </si>
+  <si>
+    <t>Apple Watch Ultra 2</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/apple-watch-ultra-2/</t>
+  </si>
+  <si>
+    <t>L49xW44xH14.4</t>
+  </si>
+  <si>
+    <t>015_sia_wd_app</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 9</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/apple-watch-series-9/</t>
+  </si>
+  <si>
+    <t>L41xW35xH10.7</t>
   </si>
 </sst>
 </file>
@@ -135,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +378,42 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,14 +446,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -486,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="H7" sqref="H7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,140 +777,968 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>42005</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="12">
         <v>1542</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
         <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="1">
         <v>43831</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12">
         <v>1984</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39083</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13">
+        <v>4550</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45352</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="13">
+        <v>5995</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="M3">
-        <v>38</v>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44440</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="14">
+        <v>150</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44682</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44501</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="13">
+        <v>314</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41640</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="13">
+        <v>5499</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="14">
+        <v>2000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="14">
+        <v>600</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44075</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="14">
+        <v>240</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45170</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="14">
+        <v>899</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="14">
+        <v>449</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="14">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F7BC6317-11D5-4DB6-91CA-D296F113E276}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{05A7A3C7-20E5-4EE9-A558-26A53BB5FD81}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E30BF857-EDF1-41FC-9012-BDC2B896C280}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{57FCF392-7786-4A97-9D56-674CE87B3623}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{BE152FD3-B31E-4FA7-9492-6B072D2A3226}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{3B569438-04CF-45F2-BB6E-7CDB5A786152}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{1D55F43E-4491-47BE-BAAD-8BE0E75B0757}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{C1D40F09-C7E6-4116-9BDF-D4ADFAD42216}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{604F246D-0A7C-4919-AB01-0C5478A0008A}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{7B964242-0BCC-4F9F-9F28-EC32F46584E7}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{D4ACE9E0-BF54-4890-8E75-C34B449C2E15}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{51535EE9-8B33-4736-A3DD-E9D9D6936511}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{00102010-2903-4342-B3DB-A70071E28C67}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{0E478E70-C250-40ED-8117-4DFEFD1277BC}"/>
+    <hyperlink ref="D3" r:id="rId15" xr:uid="{6BC84695-FBBA-4C50-BF1C-FE071E3C4132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71842362-ab5d-46b4-b35f-08dc9c6328ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8def90a7-5747-4395-b698-a599996d7912" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006131D81E7FE36E44885B3A04523FCF5D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3c9ab67dcfa560232a36bfe42a1cf3da">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71842362-ab5d-46b4-b35f-08dc9c6328ce" xmlns:ns3="8def90a7-5747-4395-b698-a599996d7912" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85c6a7f5c224f550ecad7291476c1ef0" ns2:_="" ns3:_="">
+    <xsd:import namespace="71842362-ab5d-46b4-b35f-08dc9c6328ce"/>
+    <xsd:import namespace="8def90a7-5747-4395-b698-a599996d7912"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71842362-ab5d-46b4-b35f-08dc9c6328ce" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eaf58ba8-1e8d-4aec-a6f5-993f6032dc74" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8def90a7-5747-4395-b698-a599996d7912" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{790f85f4-cb36-4710-b643-af9b7c640f7d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8def90a7-5747-4395-b698-a599996d7912">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C39BF036-B4AC-4393-9990-793AE5FB9BA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71842362-ab5d-46b4-b35f-08dc9c6328ce"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8def90a7-5747-4395-b698-a599996d7912"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7D8E78A-C06A-41E3-81BB-050BD45B738F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29494E9F-D417-4C02-8DEE-33154BA4BF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71842362-ab5d-46b4-b35f-08dc9c6328ce"/>
+    <ds:schemaRef ds:uri="8def90a7-5747-4395-b698-a599996d7912"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>